--- a/Logboek PWS v2.xlsx
+++ b/Logboek PWS v2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keizerkarelcollege-my.sharepoint.com/personal/8432_leerling_keizerkarelcollege_nl/Documents/PWS/Code-Pws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{7C3B1CC8-FA07-456C-A346-7A59DF88C8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91E23EC2-77C4-49EE-9247-C2610A5E6DB2}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{7C3B1CC8-FA07-456C-A346-7A59DF88C8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFB49E73-9AA7-4DAE-BF08-92E743DA91E7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{671093F0-31A9-42E7-AD33-BF18B71DD925}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Tijd(uren)</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Activiteit</t>
-  </si>
-  <si>
     <t>B,C, S</t>
   </si>
   <si>
@@ -165,6 +162,24 @@
   </si>
   <si>
     <t xml:space="preserve">Fouten verbeterd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleine aanpassingen volgens feedback. </t>
+  </si>
+  <si>
+    <t>C,S</t>
+  </si>
+  <si>
+    <t>Feedback integreren</t>
+  </si>
+  <si>
+    <t>Dingen herschrijven volgens feedback + interpunctie</t>
+  </si>
+  <si>
+    <t>Voorwoord + handtekening</t>
+  </si>
+  <si>
+    <t>Takenlijst</t>
   </si>
 </sst>
 </file>
@@ -227,7 +242,7 @@
     <tableColumn id="1" xr3:uid="{A653D119-8B2A-473D-90B7-776967CD9082}" name="Tijd(uren)"/>
     <tableColumn id="2" xr3:uid="{90D4EC8C-4D0B-40B8-94B3-FDF9F054733C}" name="Wie"/>
     <tableColumn id="3" xr3:uid="{4F10B449-86ED-4693-A221-06BFC9483277}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{7E7EE192-DCD3-4C0A-AC11-E9620D94ADA3}" name="Activiteit"/>
+    <tableColumn id="4" xr3:uid="{7E7EE192-DCD3-4C0A-AC11-E9620D94ADA3}" name="Takenlijst"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -561,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505E150E-6C4F-4CBF-AA38-199F902731A8}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="121" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -595,19 +610,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>45724</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -615,20 +630,20 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>45841</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B1000,"*S*",A2:A1000)</f>
-        <v>69.5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -636,20 +651,20 @@
         <v>3.5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>45840</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <f>SUMIF(B1:B1000,"*B*",A1:A1000)</f>
-        <v>69</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -657,20 +672,20 @@
         <v>2.5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>45904</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
       </c>
       <c r="H5">
         <f>SUMIF(B1:B1000,"*C*",A1:A1000)</f>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -678,20 +693,20 @@
         <v>2.5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>45915</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <f>SUM(H3:H5)</f>
-        <v>206.5</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -699,27 +714,27 @@
         <v>1.5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>45969</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>45972</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -727,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>45973</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -741,13 +756,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>45975</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -755,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>45981</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -769,13 +784,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>45988</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -783,13 +798,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>45989</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -797,13 +812,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>45996</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -811,13 +826,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>46008</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -825,13 +840,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>46009</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -839,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>46010</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -853,27 +868,27 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>46031</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>46034</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -881,27 +896,27 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>46038</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
         <v>46039</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -909,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>46039</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -923,13 +938,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>46040</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -937,13 +952,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>46041</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -951,27 +966,27 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>46042</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <v>46042</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -979,13 +994,13 @@
         <v>4.5</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1">
         <v>46042</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -993,13 +1008,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <v>46043</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1007,13 +1022,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <v>46044</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1021,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>46045</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1035,13 +1050,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1">
         <v>46045</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1049,13 +1064,83 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <v>46046</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1">
+        <v>46048</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1">
+        <v>46050</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>46050</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>46051</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>46052</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
